--- a/Components/Jacdaptor_FeatherWing_BOM.xlsx
+++ b/Components/Jacdaptor_FeatherWing_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdaptor-FeatherWing\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE557864-2D4D-4844-9526-814DDF005D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B476CA85-82F0-4084-B991-CAF5D9EBBE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jacdaptor_FeatherWing_BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="RevA" sheetId="2" r:id="rId1"/>
+    <sheet name="RevB" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>Index</t>
   </si>
@@ -271,6 +272,39 @@
   </si>
   <si>
     <t>516-1795-1-ND /C97504</t>
+  </si>
+  <si>
+    <t>C108793</t>
+  </si>
+  <si>
+    <t>FM-B2020RGBA-HG</t>
+  </si>
+  <si>
+    <t>LED RGB CHIP SMD</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>C374403</t>
+  </si>
+  <si>
+    <t>AR03BTC4700</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 0.1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTC4700_C374403.html</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2,R4</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43278F0E-4F1D-41EF-96D6-B569B0A7AA6A}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1318,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I2:I11" si="0">H3*B3</f>
+        <f t="shared" ref="I3:I11" si="0">H3*B3</f>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1650,4 +1684,484 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4B5D3D-1FF7-4B09-893D-E65AEC79018D}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2*B2</f>
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I11" si="0">H3*B3</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*B6</f>
+        <v>0.98</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7*B7</f>
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.77E-2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H12*B12</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f>H13*B13</f>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I2:I13)</f>
+        <v>1.7170000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{D6BBE7B9-AAFA-4964-B1FA-39D632CCB916}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{D9027B96-8C9B-4DB3-8302-D229BF9233F0}"/>
+    <hyperlink ref="J11" r:id="rId3" xr:uid="{6C9F4149-6A0F-4F49-8F52-5352AFFF172C}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{A6289D0A-8471-4F30-8D2B-126A8BB27FE8}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{B94FC40A-6C96-40E2-A999-B9E59F8D208C}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{9ABB013D-0CA5-441E-9B5A-C05025DD64C3}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{CA43EFB7-4695-40D5-A2D3-E73DA58CECF5}"/>
+    <hyperlink ref="J8" r:id="rId8" xr:uid="{8CA0692A-986E-4DB7-9DE2-EC31943EBBEC}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{10330DFD-0D38-4411-BD19-A87BBB3D363E}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{A47ACD91-F58A-4F6B-9B7E-46684BF49284}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{8FAD9187-E2CB-4A28-B408-8DB2836A8A89}"/>
+    <hyperlink ref="J2" r:id="rId12" xr:uid="{4182C10B-AC2D-42A0-A951-41865AF7A69A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>